--- a/todo.xlsx
+++ b/todo.xlsx
@@ -57,13 +57,13 @@
     <t>Group by coordinates</t>
   </si>
   <si>
-    <t>Generate dot product matrix</t>
-  </si>
-  <si>
     <t>Convolve</t>
   </si>
   <si>
-    <t>Ploting</t>
+    <t>Generate matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dot product logic </t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -507,15 +507,15 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>0.63333333333333441</v>
+        <v>1.9333333333333336</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>3.4833333333333392</v>
+        <v>3.2236111111111132</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>2.850000000000005</v>
+        <v>1.2902777777777796</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -557,11 +557,20 @@
       <c r="B4" s="9">
         <v>30</v>
       </c>
+      <c r="C4" s="2">
+        <f>(E4-D4)*1440</f>
+        <v>37.999999999999943</v>
+      </c>
       <c r="D4" s="8">
         <v>0.25555555555555559</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="14">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="F4" s="9">
+        <f>C4/B4</f>
+        <v>1.2666666666666648</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
@@ -572,14 +581,25 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="C5" s="2">
+        <f>(E5-D5)*1440</f>
+        <v>40.000000000000014</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="F5" s="9">
+        <f>C5/B5</f>
+        <v>0.88888888888888917</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="7"/>
       <c r="I5" s="1"/>
@@ -593,9 +613,11 @@
         <v>15</v>
       </c>
       <c r="B6" s="9">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.34375</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="1"/>
@@ -606,10 +628,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -507,15 +507,15 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>1.9333333333333336</v>
+        <v>2.3833333333333333</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>3.2236111111111132</v>
+        <v>3.0738888888888902</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>1.2902777777777796</v>
+        <v>0.69055555555555692</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -615,11 +615,20 @@
       <c r="B6" s="9">
         <v>30</v>
       </c>
+      <c r="C6" s="2">
+        <f>(E6-D6)*1440</f>
+        <v>26.999999999999986</v>
+      </c>
       <c r="D6" s="8">
         <v>0.34375</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="8">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <f>C6/B6</f>
+        <v>0.89999999999999958</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="J6" s="1"/>
       <c r="M6" s="12"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -57,13 +57,13 @@
     <t>Group by coordinates</t>
   </si>
   <si>
-    <t>Convolve</t>
-  </si>
-  <si>
     <t>Generate matrix</t>
   </si>
   <si>
     <t xml:space="preserve">Dot product logic </t>
+  </si>
+  <si>
+    <t>Convolute</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -507,15 +507,15 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>2.3833333333333333</v>
+        <v>3.0166666666666671</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>3.0738888888888902</v>
+        <v>3.1421296296296308</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>0.69055555555555692</v>
+        <v>0.12546296296296378</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -581,7 +581,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>45</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="9">
         <v>30</v>
@@ -637,15 +637,25 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>30</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="9">
+        <f>(E7-D7)*1440</f>
+        <v>38.000000000000028</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.3659722222222222</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="F7" s="9">
+        <f>C7/B7</f>
+        <v>1.2666666666666677</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2D12C97A-1F78-0845-BB71-B5125659F633}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Task</t>
   </si>
@@ -64,13 +65,22 @@
   </si>
   <si>
     <t>Convolute</t>
+  </si>
+  <si>
+    <t>K means cluster</t>
+  </si>
+  <si>
+    <t>K means cluster (cont)</t>
+  </si>
+  <si>
+    <t>Plot the means</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +153,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +239,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +291,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,20 +484,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="2" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,7 +533,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -487,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <f>(E2-D2)*1440</f>
+        <f t="shared" ref="C2:C10" si="0">(E2-D2)*1440</f>
         <v>15.000000000000027</v>
       </c>
       <c r="D2" s="8">
@@ -497,31 +551,31 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="F2" s="9">
-        <f>C2/B2</f>
+        <f t="shared" ref="F2:F10" si="1">C2/B2</f>
         <v>1.0000000000000018</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2">
         <f>SUM(B1:B99)/60</f>
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>3.0166666666666671</v>
+        <v>4.0333333333333332</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>3.1421296296296308</v>
+        <v>4.1975308641975309</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>0.12546296296296378</v>
+        <v>0.16419753086419764</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
       <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -529,7 +583,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="2">
-        <f>(E3-D3)*1440</f>
+        <f t="shared" si="0"/>
         <v>23.000000000000039</v>
       </c>
       <c r="D3" s="14">
@@ -539,7 +593,7 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="F3" s="9">
-        <f>C3/B3</f>
+        <f t="shared" si="1"/>
         <v>1.5333333333333359</v>
       </c>
       <c r="G3" s="1"/>
@@ -550,7 +604,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="13"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -558,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2">
-        <f>(E4-D4)*1440</f>
+        <f t="shared" si="0"/>
         <v>37.999999999999943</v>
       </c>
       <c r="D4" s="8">
@@ -568,7 +622,7 @@
         <v>0.28194444444444444</v>
       </c>
       <c r="F4" s="9">
-        <f>C4/B4</f>
+        <f t="shared" si="1"/>
         <v>1.2666666666666648</v>
       </c>
       <c r="G4" s="1"/>
@@ -579,7 +633,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -587,7 +641,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="2">
-        <f>(E5-D5)*1440</f>
+        <f t="shared" si="0"/>
         <v>40.000000000000014</v>
       </c>
       <c r="D5" s="14">
@@ -597,7 +651,7 @@
         <v>0.3125</v>
       </c>
       <c r="F5" s="9">
-        <f>C5/B5</f>
+        <f t="shared" si="1"/>
         <v>0.88888888888888917</v>
       </c>
       <c r="G5" s="1"/>
@@ -608,7 +662,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -616,7 +670,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="2">
-        <f>(E6-D6)*1440</f>
+        <f t="shared" si="0"/>
         <v>26.999999999999986</v>
       </c>
       <c r="D6" s="8">
@@ -626,7 +680,7 @@
         <v>0.36249999999999999</v>
       </c>
       <c r="F6" s="9">
-        <f>C6/B6</f>
+        <f t="shared" si="1"/>
         <v>0.89999999999999958</v>
       </c>
       <c r="G6" s="1"/>
@@ -635,7 +689,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -643,7 +697,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="9">
-        <f>(E7-D7)*1440</f>
+        <f t="shared" si="0"/>
         <v>38.000000000000028</v>
       </c>
       <c r="D7" s="8">
@@ -653,7 +707,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="F7" s="9">
-        <f>C7/B7</f>
+        <f t="shared" si="1"/>
         <v>1.2666666666666677</v>
       </c>
       <c r="G7" s="1"/>
@@ -664,13 +718,27 @@
       <c r="N7" s="1"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6">
+        <v>30</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" si="0"/>
+        <v>18.999999999999932</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.52847222222222223</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.63333333333333108</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -679,31 +747,59 @@
       <c r="N8" s="1"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" si="0"/>
+        <v>14.999999999999986</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.15625</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.4999999999999995</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="M9" s="12"/>
       <c r="N9" s="1"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" si="0"/>
+        <v>27.000000000000025</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.15625</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.9000000000000008</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="M10" s="12"/>
       <c r="N10" s="1"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -716,7 +812,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="8"/>
@@ -728,7 +824,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="13"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="8"/>
@@ -742,7 +838,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="8"/>
@@ -753,7 +849,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6"/>
@@ -762,7 +858,7 @@
       <c r="F15" s="6"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
@@ -775,7 +871,7 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="9"/>
       <c r="H17" s="1"/>
@@ -789,7 +885,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
       <c r="I18" s="1"/>
@@ -800,7 +896,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6"/>
@@ -808,7 +904,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="9"/>
       <c r="C20" s="6"/>
@@ -816,7 +912,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="9"/>
       <c r="C21" s="6"/>
@@ -824,37 +920,37 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -869,24 +965,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2D12C97A-1F78-0845-BB71-B5125659F633}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6BB12790-580B-6844-858D-833FE614E060}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>Plot the means</t>
+  </si>
+  <si>
+    <t>Experiment with single radius call</t>
+  </si>
+  <si>
+    <t>Flask</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -541,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C10" si="0">(E2-D2)*1440</f>
+        <f t="shared" ref="C2:C11" si="0">(E2-D2)*1440</f>
         <v>15.000000000000027</v>
       </c>
       <c r="D2" s="8">
@@ -551,25 +557,25 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F10" si="1">C2/B2</f>
+        <f t="shared" ref="F2:F11" si="1">C2/B2</f>
         <v>1.0000000000000018</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2">
         <f>SUM(B1:B99)/60</f>
-        <v>4.25</v>
+        <v>6.25</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>4.0333333333333332</v>
+        <v>5.0333333333333332</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>4.1975308641975309</v>
+        <v>6.1805555555555554</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>0.16419753086419764</v>
+        <v>1.1472222222222221</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -800,12 +806,26 @@
       <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="6"/>
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>60</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" si="0"/>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="M11" s="12"/>
@@ -813,9 +833,16 @@
       <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6">
+        <v>60</v>
+      </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
       <c r="H12" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6BB12790-580B-6844-858D-833FE614E060}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3C1724C-36D1-0A41-A0A1-097F3866E262}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C11" si="0">(E2-D2)*1440</f>
+        <f t="shared" ref="C2:C12" si="0">(E2-D2)*1440</f>
         <v>15.000000000000027</v>
       </c>
       <c r="D2" s="8">
@@ -557,7 +557,7 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F11" si="1">C2/B2</f>
+        <f t="shared" ref="F2:F12" si="1">C2/B2</f>
         <v>1.0000000000000018</v>
       </c>
       <c r="G2" s="1"/>
@@ -567,15 +567,15 @@
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>5.0333333333333332</v>
+        <v>6.3666666666666654</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>6.1805555555555554</v>
+        <v>6.3762626262626254</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>1.1472222222222221</v>
+        <v>9.5959595959600463E-3</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -839,12 +839,20 @@
       <c r="B12" s="6">
         <v>60</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>79.999999999999957</v>
+      </c>
       <c r="D12" s="8">
         <v>0.4513888888888889</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="8">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333326</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3C1724C-36D1-0A41-A0A1-097F3866E262}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{69764979-BD94-3C47-B5D8-373FDA7EB6EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>Flask</t>
+  </si>
+  <si>
+    <t>Add ads</t>
+  </si>
+  <si>
+    <t>Back to heatmaps</t>
+  </si>
+  <si>
+    <t>Integrate with circles</t>
+  </si>
+  <si>
+    <t>Add ads frontend</t>
   </si>
 </sst>
 </file>
@@ -494,7 +506,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,7 +559,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C12" si="0">(E2-D2)*1440</f>
+        <f t="shared" ref="C2:C15" si="0">(E2-D2)*1440</f>
         <v>15.000000000000027</v>
       </c>
       <c r="D2" s="8">
@@ -557,25 +569,25 @@
         <v>0.23958333333333334</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F12" si="1">C2/B2</f>
+        <f t="shared" ref="F2:F15" si="1">C2/B2</f>
         <v>1.0000000000000018</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="2">
         <f>SUM(B1:B99)/60</f>
-        <v>6.25</v>
+        <v>8.25</v>
       </c>
       <c r="I2" s="2">
         <f>SUM(C1:C99)/60</f>
-        <v>6.3666666666666654</v>
+        <v>7.6166666666666654</v>
       </c>
       <c r="J2" s="2">
         <f>H2*AVERAGE(F1:F99)</f>
-        <v>6.3762626262626254</v>
+        <v>8.0863095238095237</v>
       </c>
       <c r="K2" s="2">
         <f>J2-I2</f>
-        <v>9.5959595959600463E-3</v>
+        <v>0.46964285714285836</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="1"/>
@@ -860,11 +872,26 @@
       <c r="O12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="D13" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666656</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -874,26 +901,64 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.10625</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1333333333333333</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>11.999999999999996</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.10625</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999986</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14">
+        <v>0.11527777777777777</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
